--- a/components/download_templates/templates/Quality_Assurance_KPI_RH_CH.xlsx
+++ b/components/download_templates/templates/Quality_Assurance_KPI_RH_CH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njo85\Desktop\Kayakalp Excel Import Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1067600B-68AF-4BD5-9A03-FB3951770F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44EDED3-82B4-4F57-8CCA-A259CEB395F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0066EEAB-5BFD-43CB-AC19-F1634B07F4F4}"/>
   </bookViews>
@@ -1257,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE4A68A-84E4-46E2-872F-8FB39CB7DAB7}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1301,9 +1301,7 @@
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -1312,9 +1310,7 @@
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4">
-        <v>2</v>
-      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" ht="55.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -1323,9 +1319,7 @@
       <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4">
-        <v>3</v>
-      </c>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -1334,9 +1328,7 @@
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -1345,9 +1337,7 @@
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1356,9 +1346,7 @@
       <c r="B9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="4">
-        <v>6</v>
-      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1376,9 +1364,7 @@
       <c r="B11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="4">
-        <v>7</v>
-      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -1387,9 +1373,7 @@
       <c r="B12" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="4">
-        <v>8</v>
-      </c>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -1398,9 +1382,7 @@
       <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4">
-        <v>9</v>
-      </c>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -1409,9 +1391,7 @@
       <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4">
-        <v>10</v>
-      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -1420,9 +1400,7 @@
       <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="4">
-        <v>11</v>
-      </c>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -1431,9 +1409,7 @@
       <c r="B16" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="4">
-        <v>12</v>
-      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
@@ -1451,9 +1427,7 @@
       <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4">
-        <v>13</v>
-      </c>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -1462,9 +1436,7 @@
       <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4">
-        <v>14</v>
-      </c>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
@@ -1473,9 +1445,7 @@
       <c r="B20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="4">
-        <v>15</v>
-      </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
@@ -1484,9 +1454,7 @@
       <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="4">
-        <v>16</v>
-      </c>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
@@ -1495,9 +1463,7 @@
       <c r="B22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="4">
-        <v>17</v>
-      </c>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -1506,9 +1472,7 @@
       <c r="B23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="4">
-        <v>18</v>
-      </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
@@ -1517,9 +1481,7 @@
       <c r="B24" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="4">
-        <v>19</v>
-      </c>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
@@ -1528,9 +1490,7 @@
       <c r="B25" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="4">
-        <v>20</v>
-      </c>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
@@ -1539,9 +1499,7 @@
       <c r="B26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="4">
-        <v>21</v>
-      </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
@@ -1550,9 +1508,7 @@
       <c r="B27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="4">
-        <v>22</v>
-      </c>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
@@ -1561,9 +1517,7 @@
       <c r="B28" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="4">
-        <v>23</v>
-      </c>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -1572,9 +1526,7 @@
       <c r="B29" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="4">
-        <v>24</v>
-      </c>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
@@ -1592,9 +1544,7 @@
       <c r="B31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="4">
-        <v>25</v>
-      </c>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
@@ -1603,9 +1553,7 @@
       <c r="B32" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="4">
-        <v>26</v>
-      </c>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
@@ -1614,9 +1562,7 @@
       <c r="B33" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C33" s="4">
-        <v>27</v>
-      </c>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
@@ -1625,9 +1571,7 @@
       <c r="B34" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="4">
-        <v>28</v>
-      </c>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
@@ -1636,9 +1580,7 @@
       <c r="B35" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="4">
-        <v>29</v>
-      </c>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
@@ -1647,9 +1589,7 @@
       <c r="B36" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="4">
-        <v>30</v>
-      </c>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="5">
@@ -1667,9 +1607,7 @@
       <c r="B38" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="4">
-        <v>31</v>
-      </c>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
@@ -1678,9 +1616,7 @@
       <c r="B39" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="4">
-        <v>32</v>
-      </c>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
@@ -1689,9 +1625,7 @@
       <c r="B40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="4">
-        <v>33</v>
-      </c>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
@@ -1709,9 +1643,7 @@
       <c r="B42" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="4">
-        <v>34</v>
-      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
@@ -1720,9 +1652,7 @@
       <c r="B43" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="4">
-        <v>35</v>
-      </c>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
@@ -1731,9 +1661,7 @@
       <c r="B44" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="4">
-        <v>36</v>
-      </c>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
@@ -1742,9 +1670,7 @@
       <c r="B45" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="4">
-        <v>37</v>
-      </c>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
@@ -1753,9 +1679,7 @@
       <c r="B46" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="4">
-        <v>38</v>
-      </c>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
@@ -1764,9 +1688,7 @@
       <c r="B47" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="4">
-        <v>39</v>
-      </c>
+      <c r="C47" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
